--- a/reg-test/cap.xlsx
+++ b/reg-test/cap.xlsx
@@ -259,7 +259,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -343,14 +343,410 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>gAAAAABecfMMZG0dhbq1oFqa7FNYpghGDyAWpW07rvFN0rwiUWaudhjMRQRTTWcqsgHc0EVrs4xSbAG-IvDKgQPf0IzC2CbN8w==</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>gAAAAABecfMMNfLWIirunl_gTgTdwUWNIFTpUGzOKeaiCjXyxwnjACCbcvpo7CKcsiYojMr_0590kyjP91c9YWEjCdzrnG_tUQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGJjqImH2Ch83aDF6barDUJiKxArrbTAxbn-j3r_xjxgw1-PU6OU6WhE-P2MydNxlFWesVBKtHXmejl0oc_Awua27g==</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGJjSrzDm5PBCuO_BL9RsR_7kgwp5nWwvUAvvFQ4jXC7jOtsfllsLsoNS4o0USW3R7pe5vrA1TBRca6UKbO_4Utnhw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGcktAylUcnktHxMewG56ZCctz1jfyD4ahCxAxLw-c6L83g82-e5BWo-JnElGNu9UKvvp3NJhh8nk-wqLzs2UzeKzw==</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGckXwdKhBmGVl_RdnBjveA7u_50EF9EmV775QYACOsrK8H9_Hubxh1AF5XXHgz3BxhP1qiC-FN2rvAeo0MrwleuUw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGd6ilG6Az5aUuW0lLh6fa_gSU5a8KISd9EtsOf1-I57dROkVRd7lKJ8IQwL5p-Qvr1GXFItLorZx_FML146hTYFBg==</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGd639ikrb5unCjlynsppvJVaYxGM29u3R6RofxmUign8l4w20hy4PSonpvceN7-4_ivEZOX2bIxGeMv5MgohTuu6Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGsmfytsXxsB6PQKVWQa1hSvzB-bpc9UH3hwbSBtpT6q5tmxVl09zdIDkMQa7_KNBFdW5p_cseiz9P0nMqSU8wLYuQ==</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGsmESvmviXK4e5XMALbkVkCaVI6yg-hkcaSS28wpj11ZyNxAVeRzd6erGshbC0h7dMb4bKGhkW40A8HFhDFpA0Jhg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGtJEPnbbk5UL5v0dpYp3nkfa5lgVLfXf2PPhfCQRjgc3wwpHqRuBEfyBU2wl0YS4LR04_5WcLB00-VXjALPLd1b-A==</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGtJKer7qtyiObOBdGsP9kCAg1WtSlTXZes0x2wRsTOpyjeTQWmFjH5M8woGfPC-cT4UMnYFwXSnwkLIE1ONEJ5ByQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGtteHLYs00y8PU5ijzrnme3UN5DAFQyV47eP3RZK6ywhwZRdMKzIjE41E98tabxShk39vlDABt_skEBMeO1WNGGzQ==</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGttw02r5AyuMBrbGbo7CY0BW4GN7GrpF1nr8d6Pt1wql7cPxsfXrC4JlOPjLz6nr-JCx2UDRj6Izd07V3YHXqwRdg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGudXHav2lEtxpcwDswAhGNEgZwJikhrv-tTq_Q-mL9pxRnbmyqA_p8NUIhg2TbnVze14yZb6jOM8-SFPDa_-APeMg==</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGudN0YdNJAEnV-7pgz-ToaWd5m9a4G5WuVJdgkkRSa0ZfylLr4GDijcQURVtrE6uzwRW2hlMV_iUohmtG6ky8LMrg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGw62bFwFoxbIsfNtQe8jAJBmbjrwbMF3_1MzakMazFLg_joiihHpoUQE52al5k0FZhfBxTFONqI9_QhWXjA6J8Elw==</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGw6MsFzGbAoTCPr1JdZ5JKJe1RTCfR0OtRmmPEi7U0UC_NvhV6XTI46_Tf-w-qtBNTbe4vXY2fpqYEgDU8Nt5k22g==</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGyo9arO6eCxFM8pwN1p4Q7mttxoo2ATty3I8QSgBTdiRmcXPGX5bqsGOfmj3iCVOVZ1fbMFxWwqr3rJzGQuoi2vLQ==</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeGyoh_yTxhIPh-N1LHLNAByup5G3ezOZaJXg2UbgLE5tUvP7E8tgHqmrGsrwhOrOL_sOcmToWyarQ8zatSOnWjgKVQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG0gLVwaRbDUhbTcnn_Ys-CKpNt3b66Xy-JJA_Su-FSOtdaenQbxfUMCt3Z0oAHO5CWyUJxK3QvkR6826Tx1LW9JaQ==</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG0g3vbi3JBMT0cc1NvDynRcslsDlMZ6NP0wERcdfxdZGYcla34yTATqn8-H2MXko5T50QqK74hRJLyVUdFOcHiLoA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG1SItx_226aCewsTBxoWiyMQwpznZNF8kA0HkBGcMy3t9SLO_Lg8IVqFdTqSOSoD9O_H7kg0XN-6d4RVVhSzo_utQ==</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG1S65FL4zpaiV6b55FWteu-5bYY9dLKW3AF0Uz5Fwvk4N_kUUM6gIyxhNzncFjV_iewR8i51n20A7GBJls75zupOQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG2PeiXWGJmP3PXJ3EpOApmCxxKd5UMsG5bVqklF-r1kovmG6uA-B_PcXoT2L7FZxSqXllbzvJVBdSdu7NiaSrLaWw==</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG2PRURbOAPVW1MJ-O8hc_hu7iGqskCUmrvo0jyl5IFZ19xk-87DgVhm3Z-qi6lqN5amyEgXAcUkZJ6dwc0YmjkM3w==</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG6mKYXrYg8SPathryG9ZhRRYQdoOEeckB2XiqM9Cx1ABruFA-ThEpnAiqhBzLBW317hJ50jFpK1qtIz0DFUUlZZ7w==</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG6mWU3Ddrv0sf-M5fHQSXQi_VFk6_Z2I5aTuJ0gST7W-g-AqiXPr8B-on4dYsEoEYXbUmsvxLluE6o6aMSR6erazg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG8qOopBi8dYR-KkhNU1wrlJEDxVdbmQbsBQwde8j0fox3TerVnJcBbujkZ7bLy3JR26cHT1Eav8b-8I5vMcd_TBJw==</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeG8qr-tVl2xfx-GaDzQJsyC1_6SmL6vv-P_lhuhhf71_Ff3b52dvFVBTcAD6FXf9ACO4vostIB9jt3KnTHr9xMMKOA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHDsXoWdh5NDJaJeyfPWGqe-hFZmYWtizYSMoaaNvVAlqJ5rZp5XwOGOR66zp8gnKDbrMuyUusBr2k25Y4N6w8QS8A==</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHDsz3qXDpyjkVUV9sXGAV8W0VxzglmKMlyhCvJkBwIMVHGNIJBlxbau3LKgbq1vPdCUCXQjGWSlhIUZNNMDMni8Fg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHOtgojbrAcl8udG3OqT-M9ziJeTJbDTNFXBnzu_xijlKPX1uEwWuhIHkNfL-6kfm0GGM6_iPivsTbDc3RulTFI02A==</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHOtE57M9P6Cw3NJexVMWaixPVl79Zep8HPJ08SaOEvGFl5imnmcaPFZ4EjldUiWhKQdzJ1AEcvhSHYFWGEKURyE-Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHPF3YEZmC8obO8mhPd4llzv3QGwt8xxkv1x2EP9E35n2Z4KIOQG-qpJBKcXtpDvgB1fYAWhvAGrSwrS3Xw9BPDUkg==</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHPF6dd2k4yMQiXjsEmw_Q5KvNY-fMP9OeAwCv3Fc-u1TfmIAmbsptzLgTPAXfNPf7G4YeFD13NtYkO8jFu1dB1-0w==</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHP-EidrEuLy7YnJ3e3vBu61uiI8gaYB1YfziDSU6vdFWuKZ7UvRpvnd3odOaedkh7nPLjsejqYCuw5Q6PsO_1yQ1g==</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHP-mafhViJqrscq0hx1LeYszgCyaGlTpVtpQ_oPNv4BZXVPwE2PaQBlZt3cn7BJV0nvvDi4nPg4waPk12W0TZXa0w==</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHQPqKfHA3E2YdxCQP_YiztmRWHPn9dkT-O35AzzvX8vb_L_IG_Db2vkVHGeS6BzM_5Z3r0WLzxcP64QDPK2te0eSg==</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHQP-XeJCSQDCqC6pvfhPs71Ffykj5x4vAYfT-yBr6cANANtjKF_owG32R1ti0fj-FYm0hphd_zUZY0daib2lziujw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHRlJjUe9qaugh9k7BSVWxNS5XCDEIJk7HbzHvUTVbQ4wm59oggpmRq-U390yvkfY-VIN4yaDn1_L10rskP6XUZPvg==</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHRl8DlujhCF09Z0Pwwxyj8cwSavoYm9KIfE29AQrtaQbjMukS4z4tRclMXHV6lDSvebEOpEDp5GNQt48mRTznmC_w==</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHStD8ozKjfFNSFAa3ayI5OEJ07sfDfIfK9MIbJs0sndZjlaRiButTyD5W7Hs5hPX4BVMhUdjDBfw7IXH4aSsSwOZQ==</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHStpJT2bsnEbQIurHZhuQGN_zavDrL2sp3Ji1paNbKP51YDg1br4WMhGB6n-oZODSa3utM7-9zT97hSUIbJ1NaxGQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHTT5muJZaswYoAekswf6DqXU-ua1OST2bYqG4GSIu26Oqag4WQVxsRHf3Irkrtz4OZRMbedj6bQaXEpaJ-31712og==</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHTTZTwBRoQLf96k14mn814MJMk7XdBFsKumxaFOXCGSUDHiw6-iIdu5_428pOI9DMzACW82DfYU4spQeTybxYd8aA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHW6uc8gFOQ8OXTv6CMJcrKTgjO8EiT6RvUS6IYUjNJ-6oVSYTIxj4XhlYfWsRMbqQJE0P0J6kfw0m1481jLeD2cyA==</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHW6XS1Z8vKY23heg5LOK496uaacNvymW0PPOAr7pZOrMn6JLbCKt66tR7FO72syQekZvP6LZRulkZnk9hjt8Wt-yA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHX2Nj9T50J2NB-Q82MG7i1DG8uwdhe-t_wyTVv2Xsb_aGaZoy3mlDF226MyyDfIU5Ogqeq9isU0kTLn220OdhRm2g==</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHX2o017uu6QPrKViLDHsNHx_BDtb-5Y_8uDmKT2WPkz31Yl5nzRRu8yJGGZ5SRBL8hlvsjarMA9_gy3hGIm3ESQwg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHYxzqp32VYyiVOC0xpe8Wwy8lz9FjRnuQUigeKfk_Oy6WAQ-wU2EAAze2gPEt_NkExCjy25SkSNBS10ur2znQpEQA==</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHYxTC5sfMc3O3JoZVXLjItFbabem5RFLf1m1xjZlfeDPneBw3nMJH5plwebLbANgbsW9llv9gws2NjPFV94r4_l1g==</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHZYb_r9_k4OUoX12FbJt97HbDGUecaMR8drUgtgEasrBW35ie_nTIwtA1QdS2ytYr-fUKelV6FZppPvx3rt4m5clQ==</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHZYRnKKzbkH3wvdKuwcbFBpzrOuAleYuYXTr-rIGto9PN1dzY3i5hnp_KOyfp14P79Iy1jqlODbkcsb489cAki-cw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHcwn5vKxPlHtBkkyzq_5EmeBRuBsmFOilAECVZ47rWhcsCz-lX7h6-nNUY9SSyKCNUogdnvHZFbAmVxWs1LEhJTJw==</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeHcworGbF1OSTHejjsgm9r6QJVhq0n7tbR93ooqs3pe_dDPbTuokLWOK1-iYXH4bSxDPceHWzdlzHYFZHWgvkn7AbA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIS66nQaliDBTueewG8h3PhO3D-8MSIyrdeGAb1aZ8L4VN-b8v9sOmZcupbVzZAALBrlcNJDBZPcPGgg8qK1roSkfQ==</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIS6x728FSzeUu3EDvSErYYe5nc7CmTU_xwvnPa7kGJ52OtCB0CTnXNjW7pfCWbqj6PBsFli1mdAC0X5zLI1xu6Y9w==</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIU4etcAcEq-2EF01Cdps-a5c88Rfv7Wp2TEXXcLBUkrfXRbV_N2M0rVHXHWlQMjQsA3eeEhZyclYBcIDilOkZ2d6g==</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIU4q0_OwoGhmWKGP-VYSaJlhZD-6M0FBxT8D67yUwxo5CWe6uDUsEG7oOAE7qbBxCW0I4aPWX6qeIIKLlnibjYS2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIW2CtM30Hv183orFb1mf7T8nPNVInuhgmR5BgTrN_-qCmJuMv5ILFrkfwN7NyPunMb2kQ_tbBo3Dlw3ZBdmM7KC8w==</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIW20jSau7Pk47Aca_uWPeryTqenwQLEA3E-4-c9sWvQfRAnr0bsaXdfqBc_FQyNwC-da1AjwR7nXt3ls9NjQWAzCA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIYiX4vusoE7DZ-mmXjesAao0yvv1eFerozda_XJUzjgok2p5e9X05DeoBz-QbwhJAp6-uIwvNeTXLxHiPlv0WBMJQ==</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeIYi1aAKE61w-m-YdTkAjrRoAI-U8-HNP6Q0CwQ1OQ_m8jpwgkp77pGnRb-af5IX_jpxuV8fhntnIzexA6tM9cdxkw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeI1ibM9-kg6fjZ4HnLbG8nwowJukHcwB2Ojjkd5Bk1lZzWdgwjvrsigyRMPzZvfKd6VLowszDPrSbY58t8xE40GhaQ==</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeI1iwAgygS1oSgMT1gelV_nmFh4DXlQB8dPpujKWLf_4eCeSUwL_JMAjiClwijstEkgSXQ6CTf15hxJezW4IuRel0w==</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gAAAAABeeJgg_ZXkXSYF7I7ii1qJp3on1sMrbCh5CetziWj0azI98I2EsMLbNBN-f5b5As7EPizwl2WK9ili-z0wbbbSXJwagQ==</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gAAAAABeeJggt2RJ9B1RriOdfJ_CMPRBku5yguLK2HTINoUHrzbUPrKh6NYLBHlJvGv0AbRquU4pIGgo4vzPEtkrxujdCih8uQ==</t>
         </is>
       </c>
     </row>

--- a/reg-test/cap.xlsx
+++ b/reg-test/cap.xlsx
@@ -259,7 +259,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,14 +739,134 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>gAAAAABeeJgg_ZXkXSYF7I7ii1qJp3on1sMrbCh5CetziWj0azI98I2EsMLbNBN-f5b5As7EPizwl2WK9ili-z0wbbbSXJwagQ==</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="0" t="inlineStr">
         <is>
           <t>gAAAAABeeJggt2RJ9B1RriOdfJ_CMPRBku5yguLK2HTINoUHrzbUPrKh6NYLBHlJvGv0AbRquU4pIGgo4vzPEtkrxujdCih8uQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeM1AZCvSu8L7-pF0wFjnzZsja6h9LFpszj-6mvgpTAB3FfmAcLVbVzzZMLPh2BPqa2-Slga0QzGJCXUFR0ULdXcOdQ==</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeM1AtMjRK6UI1scXBnSNPj_1fskupcn1zRRCBf_WIyw_-jpXXs8RBIMV29tHMHj6Ff_E6JvCrs1p8twKkEHfzFiX-Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZnKWfi67VIPJFvPlveJCtzUdncfgDczbT9n_b3F40jUuu3vr5Nf-pI0_w3bW9eVb1ybfafnmjpFk2XYs_1jOHN4ew==</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZnK6IBCiqEGeR5Tz3fOAzSzv9R5k9p8reP26yACCWyGA7pA74-glpV3HVGtZkmj3pn8BFliEu0HRYNGpOWwl78i2A==</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZqceEMQ8yZ9dDTKdXrfQCFg1YL9LxteF4jwIXZ28ftI_wCZPNftk63Gu7YULF9UpF68dPg4eS98WyEpQ2IbiThPxw==</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZqcefqD44G7BN6PX3uVpEU5Lpv56asolHt_vjbAaQWWdkvEjtjX8tPdrYdDlIIyeLooslYGJc6diN5v_-fexghcKQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZr2Fehw-rJ3k8VuOg2kE2E8d6NdTJCslyYaBb69gNoZHJO284wwptIB2kC47Qsdt1zY00Wnaggg5xrg76IV9pKgWQ==</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZr2_C6US4O1aC8JrqohsoNoYdXW7QX_ZsnmLg7Wdvb86pvcSBalwY6YImUgYwDDhtFww-GiLkoIPkBFGB6tvkB5nw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZsQk4ms2DPWM6WjaEkuG7acE6Fck6zAz7OzfWI0H64Y01BSljVW-I9MSDwl-p4FXIVN9AznCaQK0cz5ge4uM717ug==</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZsQL0TCOF_FHTA7FeasqPuGuGNSvMpKjo9p8c3LTsNXMZXQQeGXRA9CthI9qL4tUDEVD1fT2LSgOz-8VYUctWxbpw==</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZsd48igZubcHc2yYzVsrx8g3xDK9lLJaPS54xUJsH9tFVeJB3K7ubmxXLyOHEZS0KH-T1ij6jZmuAqUA2Jbj3XXdw==</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZsdGOfjND4IHZLbkdt9YDWMuoyDTJF3fQ4XkHFt7ACpWxD0P7ix-_HxQUtlGC_7Ua1PxrbVgYsUNicisq3rR9dFkA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZtziRvrsAyvpRCO7KVsVjj_z_1a9ivPgIHrZM7hXfiVepP_ji1s3X3RJLiq-nqBOcoI2TH6KbuuAq3RfbWyXDDfjA==</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZtz0z2x11sYYaIY8HXnwsR_vYcb6RnHUlaluerfQE6_5-fJIwE6P9zqOr3RVlpAyGsCce6gW0VbDJv_olPPlUukKQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZvB1kbfnUSkhE6zLGCZ57WLImfMRAmvqHG7yShrH7nHHDYRNQN4k3hKQRzn_cIhWBxbsj7H7eSEQAXsbb7ELyXeOQ==</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZvBw7x0Ne_XlcsBI9OtODrybp82QASv7L5xU3xM0ei9R5DMZVgarsdvHuBdoe4oBs1AG7d78TY95eai7a-SnDdRcg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZxRU98OyVFuz30segaoUS3Wva1_-aewYlOSCtTJ32HPpbNw6x6wZmuIdSlV5FhaxSL1JcbBi0D5Ka32RuBewCzH_w==</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZxRVRsoOQ1FAy-JaVKiQItzlvPR3msu1khWCHr96YyohRBSsbI7e9M_mlsyo9e9HSIRp0JsC2Fgk7AVbyQEPXcK5A==</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZyN55DTR3Vj_dfNVJd_aA51kfI5CWPxaICv73ddkv6euPu-n-CeDVz3A5dF8Xgm32hDHSuE-AfE7vljMVaUY6oXJA==</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>gAAAAABeeZyN4J7waP4f4WlwUemQC1dCU46QrVgFcNjMIs6wfTghH_Sp-YmGFW2pqEvJ2KWxKwLmT3NijUzEyZnJ0s-G6quSCg==</t>
         </is>
       </c>
     </row>
